--- a/biology/Histoire de la zoologie et de la botanique/Léonce_de_Lambertye/Léonce_de_Lambertye.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léonce_de_Lambertye/Léonce_de_Lambertye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9once_de_Lambertye</t>
+          <t>Léonce_de_Lambertye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léonce de Lambertye est un botaniste français, né à Montluçon le 14 février 1810, mort à Chaltrait (arrondissement d’Épernay) le 30 août 1877.
 Il est l’auteur du Catalogue raisonné des plantes vasculaires qui croissent spontanément dans le département de la Marne (1846).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9once_de_Lambertye</t>
+          <t>Léonce_de_Lambertye</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de la noblesse française, qui compta plusieurs grands officiers de l’ancienne cour des ducs de Lorraine, alliée à ce qu’il y a de plus prestigieux en Champagne, le comte Lambertye aurait pu, à l’exemple de ses ancêtres, aspirer aux charges qui procurent les honneurs ; il préféra l’étude des sciences naturelles et de la botanique en particulier, dont il était l’un des maîtres les plus autorisés.
 On a de lui plusieurs ouvrages sur cette science, entre autres : Description des plantes vasculaires du département de la Marne, avec une carte géologique et botanique ; Coup d’œil sur la botanique et la géologie de l’arrondissement de Sainte-Menehould.
